--- a/docs/PT1/PT1_12.08.24_output.xlsx
+++ b/docs/PT1/PT1_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1357 +505,1607 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731005444.1534371</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731005445.305383</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005444.1534371.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005445.305383.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.21</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731005447.4374247</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731005448.5993154</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005447.4374247.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005448.5993154.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.63</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2300000000000182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731005449.5806954</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731005450.275801</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005449.5806954.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005450.275801.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.95</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>279.08</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731005459.0967665</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731005460.17984</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005459.0967665.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005460.17984.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.21</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731005462.1525888</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731005463.2366874</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005462.1525888.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005463.2366874.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.63</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2300000000000182</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731005464.1422644</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731005464.7695575</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005464.1422644.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005464.7695575.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.95</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>279.08</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731005474.7827823</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731005475.0062127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005474.7827823.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005475.0062127.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>279.14</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731005477.861571</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731005478.4338253</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005477.861571.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005478.4338253.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>279.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>279.64</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731005479.498006</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731005480.152228</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005479.498006.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005480.152228.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>280.19</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>280.02</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731005486.751567</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731005487.0148933</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005486.751567.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005487.0148933.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>128.32</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>127.89</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4299999999999926</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731005493.5144694</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731005494.5522208</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005493.5144694.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005494.5522208.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.89</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>128.03</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731005495.6722517</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731005496.2447193</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005495.6722517.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005496.2447193.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>128.16</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>128.12</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731005498.2962334</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731005499.5556142</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005498.2962334.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005499.5556142.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.56</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>128.77</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.210000000000008</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731005509.3165405</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731005510.8374426</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005509.3165405.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005510.8374426.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6349.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6369</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-19.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731005525.4762838</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731005526.4281821</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005525.4762838.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005526.4281821.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>498.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>499.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731005527.6359196</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731005528.153562</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005527.6359196.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005528.153562.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>499.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>499.05</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731005530.6857939</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731005531.096687</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005530.6857939.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005531.096687.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>500.7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>499.25</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.449999999999989</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731005532.7781875</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731005532.7781875.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+          <t>./test_images/ROSN1731005532.7781875.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>502.75</v>
       </c>
-      <c r="J20" t="n">
-        <v>502.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>501.85</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731005538.0299716</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731005538.1775773</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005538.0299716.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005538.1775773.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.76</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>224.25</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731005538.931588</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731005539.190865</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005538.931588.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005539.190865.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>224.77</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>224.46</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731005540.0048873</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731005542.567998</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005540.0048873.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005542.567998.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>225</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>225.55</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731005543.325</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731005544.0360692</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005543.325.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005544.0360692.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>225.99</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>226.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1099999999999852</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731005550.890042</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731005551.2221534</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005550.890042.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005551.2221534.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1014.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1012.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731005553.879716</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731005554.4431827</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005553.879716.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005554.4431827.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1013.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1012.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731005557.3464139</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731005558.679846</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005557.3464139.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005558.679846.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1017.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1016.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731005570.3560095</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731005571.0810378</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005570.3560095.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005571.0810378.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.935</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.928</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731005571.5717525</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731005572.3367064</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005571.5717525.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005572.3367064.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.94</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.94</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1848,1364 +2113,1616 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731005581.4731915</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731005582.335126</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005581.4731915.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005582.335126.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>123.64</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>123.54</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731005602.6788623</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731005605.828432</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005602.6788623.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005605.828432.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>159.54</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>160.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1.260000000000019</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731005632.2616959</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731005632.4002964</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005632.2616959.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005632.4002964.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1373.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1371.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.199999999999818</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731005635.436202</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731005636.5910833</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005635.436202.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005636.5910833.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1377.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1377.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731005637.7520041</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731005638.4301856</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005637.7520041.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005638.4301856.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1384</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1381.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731005644.930766</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731005645.7246418</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005644.930766.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005645.7246418.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.91</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>61</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731005654.4104617</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731005654.5580945</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005654.4104617.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005654.5580945.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>60.94</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>61.11</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731005655.3489506</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731005655.9433603</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005655.3489506.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005655.9433603.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>60.99</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>61.19</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1999999999999957</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731005659.353263</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731005659.701304</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005659.353263.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005659.701304.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>96.93000000000001</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>96.73</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731005660.2169242</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731005660.3565784</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005660.2169242.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005660.3565784.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>96.98</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>96.87</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731005664.8056722</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731005665.355174</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005664.8056722.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005665.355174.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>97.12</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>96.94</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731005683.122346</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731005685.0063035</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005683.122346.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005685.0063035.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>55.49</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>55.55</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.05999999999999517</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731005696.9043863</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731005697.1307518</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005696.9043863.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005697.1307518.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>150.38</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>149.38</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731005698.7731743</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731005700.1773937</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005698.7731743.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005700.1773937.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>150.02</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>150.58</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731005701.100923</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731005701.401147</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005701.100923.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005701.401147.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>151.4</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>151</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731005702.5321212</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731005702.5321212.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+          <t>./test_images/SOFL1731005702.5321212.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>152.14</v>
       </c>
-      <c r="J45" t="n">
-        <v>152.14</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>153.52</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-1.380000000000024</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731005709.3409002</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731005714.2109814</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731005709.3409002.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731005714.2109814.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.2945</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.2957</v>
       </c>
-      <c r="K46" t="n">
-        <v>-0.001199999999999979</v>
+      <c r="M46" t="n">
+        <v>-0.001200000000000034</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731005723.2942042</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731005723.6203318</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005723.2942042.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005723.6203318.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>19.909</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>19.882</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.02699999999999747</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731005725.6153271</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731005726.7881866</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005725.6153271.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005726.7881866.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>19.941</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>19.958</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.01699999999999946</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731005727.893226</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731005728.5833845</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005727.893226.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005728.5833845.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>19.992</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>19.976</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01600000000000179</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731005729.889116</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731005730.116481</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005729.889116.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005730.116481.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>19.922</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>19.951</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02899999999999991</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731005738.3045685</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731005739.3845274</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005738.3045685.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005739.3845274.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>666.15</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>666.05</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731005739.812384</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731005740.6277084</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005739.812384.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005740.6277084.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>667.25</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>666.75</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731005741.6180596</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731005743.1888824</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005741.6180596.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005743.1888824.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>668.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>669.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731005754.0102737</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731005755.1652122</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005754.0102737.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005755.1652122.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>149.72</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>149.55</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731005756.591401</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731005756.7040663</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005756.591401.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005756.7040663.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>149.82</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>149.63</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731005757.0132394</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731005757.559775</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005757.0132394.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005757.559775.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>149.9</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>149.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731005757.8917038</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731005758.8337262</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005757.8917038.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005758.8337262.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>150.18</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>150.76</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,6 +3760,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3256,6 +3788,15 @@
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.05666666666667197</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3269,6 +3810,15 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.01374999999999993</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3282,6 +3832,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.02999999999999403</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3290,11 +3849,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8400000000000034</v>
+        <v>-0.5400000000000205</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.1350000000000051</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3308,6 +3876,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3321,6 +3898,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.07999999999999996</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3329,11 +3915,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.849999999999966</v>
+        <v>2.749999999999943</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.6874999999999858</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3347,6 +3942,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>1.533333333333227</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3360,6 +3964,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1633333333333364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3373,6 +3986,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.2000000000000076</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3386,6 +4008,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.1533333333333336</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3399,6 +4030,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>1.200000000000008</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3412,6 +4052,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3425,6 +4074,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.003499999999999837</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3438,6 +4096,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.05999999999999517</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3451,6 +4118,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-1.260000000000019</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.79</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3459,11 +4135,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001199999999999979</v>
+        <v>-0.001200000000000034</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.001200000000000034</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3477,6 +4162,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3490,6 +4184,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3503,6 +4206,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
